--- a/P4 Test Cases.xlsx
+++ b/P4 Test Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>time command</t>
   </si>
@@ -1973,7 +1973,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>2000000</c:v>
+            <c:v>5000000</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2376,7 +2376,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>2000000</c:v>
+            <c:v>5000000</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2523,6 +2523,409 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2089098952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>15 Cluster Centers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P=8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>500000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P=8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1000000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P=8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5000000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P=8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>76.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2093493272"/>
+        <c:axId val="2089642728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2093493272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequential vs &gt;1 Processors (P)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089642728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089642728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2093493272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2704,6 +3107,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4371,15 +4806,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
@@ -4526,7 +4961,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" thickBot="1">
+    <row r="9" spans="1:7" ht="17" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -4650,6 +5085,133 @@
       </c>
       <c r="G14" s="7">
         <v>33.600999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13" thickBot="1"/>
+    <row r="16" spans="1:7" ht="17" thickBot="1">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1">
+      <c r="A18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B18" s="7">
+        <v>14.999000000000001</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14.826000000000001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14.537000000000001</v>
+      </c>
+      <c r="E18" s="7">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <v>15.836</v>
+      </c>
+      <c r="G18" s="7">
+        <v>15.336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1">
+      <c r="A19" s="8">
+        <v>500000</v>
+      </c>
+      <c r="B19" s="7">
+        <v>21.247</v>
+      </c>
+      <c r="C19" s="7">
+        <v>17.776</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17.670999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>17.289000000000001</v>
+      </c>
+      <c r="F19" s="7">
+        <v>17.71</v>
+      </c>
+      <c r="G19" s="7">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1">
+      <c r="A20" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="B20" s="7">
+        <v>26.536999999999999</v>
+      </c>
+      <c r="C20" s="7">
+        <v>24.728999999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20.992000000000001</v>
+      </c>
+      <c r="E20" s="7">
+        <v>20.983000000000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20.038</v>
+      </c>
+      <c r="G20" s="7">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1">
+      <c r="A21" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="B21" s="7">
+        <v>76.42</v>
+      </c>
+      <c r="C21" s="7">
+        <v>58.811999999999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>46.886000000000003</v>
+      </c>
+      <c r="E21" s="7">
+        <v>54.811999999999998</v>
+      </c>
+      <c r="F21" s="7">
+        <v>42.110999999999997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>39.125999999999998</v>
       </c>
     </row>
   </sheetData>
